--- a/spliced/falling/2023-03-25_17-55-44/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-44/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.571854650974273</v>
+        <v>-0.9255759716033934</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08382582664489754</v>
+        <v>1.071177214384079</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.215982675552368</v>
+        <v>-0.401322513818741</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1412625908851623</v>
+        <v>0.2278527319431305</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3335324227809906</v>
+        <v>-0.8228355050086975</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0261144898831844</v>
+        <v>0.3602577745914459</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.946246147155765</v>
+        <v>-1.280259013175964</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2504835128784156</v>
+        <v>0.5940434336662286</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.480054140090942</v>
+        <v>-1.134497284889223</v>
       </c>
       <c r="F3" t="n">
-        <v>0.152563601732254</v>
+        <v>0.0354301854968071</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.527634859085083</v>
+        <v>-0.427452951669693</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0335975885391235</v>
+        <v>0.4167627990245819</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-5.073675036430361</v>
+        <v>-1.571854650974273</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.826430678367616</v>
+        <v>0.08382582664489754</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.739734649658203</v>
+        <v>-2.215982675552368</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2588541507720947</v>
+        <v>0.1412625908851623</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.7525860071182251</v>
+        <v>-0.3335324227809906</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0536034256219863</v>
+        <v>-0.0261144898831844</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.199407458305356</v>
+        <v>-1.946246147155765</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.501654863357543</v>
+        <v>0.2504835128784156</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.262988328933716</v>
+        <v>-2.480054140090942</v>
       </c>
       <c r="F5" t="n">
-        <v>0.447000652551651</v>
+        <v>0.152563601732254</v>
       </c>
       <c r="G5" t="n">
-        <v>0.88361656665802</v>
+        <v>-0.527634859085083</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.7803803682327271</v>
+        <v>-0.0335975885391235</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8.78546768426898</v>
+        <v>-5.073675036430361</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.89101099967958</v>
+        <v>-1.826430678367616</v>
       </c>
       <c r="E6" t="n">
-        <v>47.06318786740315</v>
+        <v>-2.739734649658203</v>
       </c>
       <c r="F6" t="n">
-        <v>2.5057692527771</v>
+        <v>0.2588541507720947</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.185495853424072</v>
+        <v>-0.7525860071182251</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.749212622642517</v>
+        <v>0.0536034256219863</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.72559547424312</v>
+        <v>-3.199407458305356</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.610608488321275</v>
+        <v>-1.501654863357543</v>
       </c>
       <c r="E7" t="n">
-        <v>35.79121446609481</v>
+        <v>-3.262988328933716</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.3768630027771</v>
+        <v>0.447000652551651</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.853449821472168</v>
+        <v>0.88361656665802</v>
       </c>
       <c r="H7" t="n">
-        <v>1.152244567871094</v>
+        <v>-0.7803803682327271</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-8.249110460281372</v>
+        <v>8.78546768426898</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.285275377333166</v>
+        <v>-8.89101099967958</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.368247583508488</v>
+        <v>47.06318786740315</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.452763080596924</v>
+        <v>2.5057692527771</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.31610918045044</v>
+        <v>-4.185495853424072</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.093448758125305</v>
+        <v>-1.749212622642517</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-7.083846211433405</v>
+        <v>3.72559547424312</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.286428689956659</v>
+        <v>-6.610608488321275</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4840306788682932</v>
+        <v>35.79121446609481</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9560040831565856</v>
+        <v>-3.3768630027771</v>
       </c>
       <c r="G9" t="n">
-        <v>1.219134330749511</v>
+        <v>-6.853449821472168</v>
       </c>
       <c r="H9" t="n">
-        <v>3.047301292419434</v>
+        <v>1.152244567871094</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.840081989765169</v>
+        <v>-8.249110460281372</v>
       </c>
       <c r="D10" t="n">
-        <v>2.111219294369222</v>
+        <v>-1.285275377333166</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04846413433551781</v>
+        <v>-3.368247583508488</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0424551330506801</v>
+        <v>-3.452763080596924</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1565342247486114</v>
+        <v>-1.31610918045044</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2597704529762268</v>
+        <v>-1.093448758125305</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.811614036560053</v>
+        <v>-7.083846211433405</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9647219777107299</v>
+        <v>-2.286428689956659</v>
       </c>
       <c r="E11" t="n">
-        <v>0.292347490787505</v>
+        <v>0.4840306788682932</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1169806942343711</v>
+        <v>0.9560040831565856</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.6998988389968872</v>
+        <v>1.219134330749511</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.625512361526489</v>
+        <v>3.047301292419434</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.02576005458831</v>
+        <v>-1.840081989765169</v>
       </c>
       <c r="D12" t="n">
-        <v>3.592965073883541</v>
+        <v>2.111219294369222</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1755489408969892</v>
+        <v>0.04846413433551781</v>
       </c>
       <c r="F12" t="n">
-        <v>1.398270487785339</v>
+        <v>-0.0424551330506801</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.411556839942932</v>
+        <v>0.1565342247486114</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.2585487067699432</v>
+        <v>0.2597704529762268</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2673106193542476</v>
+        <v>3.811614036560053</v>
       </c>
       <c r="D13" t="n">
-        <v>1.979196399450299</v>
+        <v>0.9647219777107299</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2698189914226538</v>
+        <v>0.292347490787505</v>
       </c>
       <c r="F13" t="n">
-        <v>2.174527645111084</v>
+        <v>0.1169806942343711</v>
       </c>
       <c r="G13" t="n">
-        <v>1.24815046787262</v>
+        <v>-0.6998988389968872</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5600107312202454</v>
+        <v>-1.625512361526489</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6833226680755626</v>
+        <v>1.02576005458831</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3385796248912853</v>
+        <v>3.592965073883541</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.02221550792456</v>
+        <v>-0.1755489408969892</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1776090711355209</v>
+        <v>1.398270487785339</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5535966157913208</v>
+        <v>-1.411556839942932</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1540907621383667</v>
+        <v>-0.2585487067699432</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.4996232986450184</v>
+        <v>0.2673106193542476</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3156740069389323</v>
+        <v>1.979196399450299</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2882215976715059</v>
+        <v>0.2698189914226538</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0699440687894821</v>
+        <v>2.174527645111084</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0386372283101081</v>
+        <v>1.24815046787262</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0519235469400882</v>
+        <v>0.5600107312202454</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.2515395879745499</v>
+        <v>0.6833226680755626</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7405525892972948</v>
+        <v>-0.3385796248912853</v>
       </c>
       <c r="E16" t="n">
-        <v>1.177142247557639</v>
+        <v>-1.02221550792456</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0510072484612464</v>
+        <v>-0.1776090711355209</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0113010071218013</v>
+        <v>0.5535966157913208</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0332921557128429</v>
+        <v>-0.1540907621383667</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.430771350860593</v>
+        <v>0.4996232986450184</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8799855709075934</v>
+        <v>-0.3156740069389323</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8326354324817646</v>
+        <v>-0.2882215976715059</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0404698215425014</v>
+        <v>-0.0699440687894821</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3057380616664886</v>
+        <v>0.0386372283101081</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0070249503478407</v>
+        <v>-0.0519235469400882</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.2168139219284046</v>
+        <v>-0.2515395879745499</v>
       </c>
       <c r="D18" t="n">
-        <v>1.084875062108039</v>
+        <v>0.7405525892972948</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5181054919958111</v>
+        <v>1.177142247557639</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0203112699091434</v>
+        <v>-0.0510072484612464</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0247400421649217</v>
+        <v>0.0113010071218013</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1175915598869323</v>
+        <v>-0.0332921557128429</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.08790016174316459</v>
+        <v>-0.430771350860593</v>
       </c>
       <c r="D19" t="n">
-        <v>1.008570432662963</v>
+        <v>0.8799855709075934</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4307903051376349</v>
+        <v>0.8326354324817646</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0080939643085002</v>
+        <v>0.0404698215425014</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0186313893646001</v>
+        <v>0.3057380616664886</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0047342055477201</v>
+        <v>0.0070249503478407</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.2223867177963257</v>
+        <v>0.2168139219284046</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8657857477664948</v>
+        <v>1.084875062108039</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5839412361383439</v>
+        <v>0.5181054919958111</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0157297793775796</v>
+        <v>-0.0203112699091434</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0062613687478005</v>
+        <v>0.0247400421649217</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1360702365636825</v>
+        <v>-0.1175915598869323</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.1144545078277593</v>
+        <v>-0.08790016174316459</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9493652880191804</v>
+        <v>1.008570432662963</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8125896006822588</v>
+        <v>0.4307903051376349</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0059559359215199</v>
+        <v>-0.0080939643085002</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0456621758639812</v>
+        <v>-0.0186313893646001</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.009010262787342</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.001384258270263117</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.9941152483224868</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.7851106524467466</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0004581489483825</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.0007635815418325</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.0609338097274303</v>
+        <v>-0.0047342055477201</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-55-44/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-44/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,6 +1035,286 @@
         <v>-0.0047342055477201</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.2223867177963257</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8657857477664948</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5839412361383439</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.0157297793775796</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.0062613687478005</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1360702365636825</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1144545078277593</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9493652880191804</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8125896006822588</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.0059559359215199</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.0456621758639812</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.009010262787342</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.001384258270263117</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9941152483224868</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7851106524467466</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0004581489483825</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.0007635815418325</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.0609338097274303</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.04791402816772423</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9533933401107785</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6604413688182829</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.0006108652451075</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0114537235349416</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0355829000473022</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.02978670597076406</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9465968608856203</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6349874883890154</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.0042760567739605</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.0050396383740007</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.0058032199740409</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.007494449615478475</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9755845963954928</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.702362984418869</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.005192354787141</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.0007635815418325</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.0145080499351024</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.001274824142456048</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8726469278335574</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6991539821028709</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0010690141934901</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.008399397134780801</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0061086523346602</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.003990173339843651</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9426385164260862</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7098991274833678</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0004581489483825</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0038179077673703</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0076358155347406</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.00699806213378908</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.904570586979389</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.691669926047325</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0007635815418325</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0027488935738801</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.0044287731871008</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01654338836669934</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8796091377735137</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.693576380610466</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.00167987938039</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0027488935738801</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0114537235349416</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
